--- a/analiza podataka/t-test male-female.xlsx
+++ b/analiza podataka/t-test male-female.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stvari\faks\Diplomski\masters-thesis\data analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stvari\faks\Diplomski\masters-thesis\analiza podataka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63792D0D-47BC-4337-BCA1-F66C8DAAFDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B035B0-C1F3-499A-8D32-FEB6EC3676C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="t-test" sheetId="1" r:id="rId1"/>
+    <sheet name="ocjene pojedinačnih slika" sheetId="1" r:id="rId1"/>
+    <sheet name="vrijednosti svih slika" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>Group Statistics</t>
   </si>
@@ -121,7 +122,7 @@
     <numFmt numFmtId="165" formatCode="###0.000000000000000"/>
     <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +171,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF264A60"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -667,7 +676,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -728,30 +737,70 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -779,55 +828,141 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="24" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="92" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="93" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="94" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="95" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="96" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="97" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="98" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="99" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="100" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="101" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="102" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="103" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="104" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="17" xfId="107" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="108" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="19" xfId="109" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="110" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="111" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="112" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="113" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="114" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="115" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="116" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="117" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="118" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="119" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="120" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="121" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="122" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="123" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="123" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="124" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="125" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="126" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="127" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="128" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="129" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="130" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="106" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
@@ -1299,7 +1434,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A45" sqref="A45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,20 +1458,20 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1351,7 +1486,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1371,7 +1506,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1389,76 +1524,76 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="50" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="39" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="12" t="s">
         <v>20</v>
       </c>
@@ -1467,10 +1602,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="56" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="14">
@@ -1502,7 +1637,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1536,20 +1671,20 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1699,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1584,7 +1719,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1602,76 +1737,76 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="36" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
     </row>
     <row r="24" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="24"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="12" t="s">
         <v>20</v>
       </c>
@@ -1680,10 +1815,10 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="56" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="14">
@@ -1715,7 +1850,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1747,23 +1882,23 @@
       <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="22"/>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="42"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1778,7 +1913,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1798,7 +1933,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1816,76 +1951,76 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="36" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="38"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="52"/>
     </row>
     <row r="38" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="39" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="22" t="s">
+      <c r="I38" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="24"/>
+      <c r="K38" s="55"/>
     </row>
     <row r="39" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="12" t="s">
         <v>20</v>
       </c>
@@ -1894,10 +2029,10 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="56" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="14">
@@ -1929,7 +2064,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1961,23 +2096,23 @@
       <c r="A43" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="55"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="45" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
@@ -1992,7 +2127,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2012,7 +2147,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
@@ -2030,76 +2165,76 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="29"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="27"/>
     </row>
     <row r="51" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="36" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="38"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="52"/>
     </row>
     <row r="52" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="39" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I52" s="22" t="s">
+      <c r="I52" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="22" t="s">
+      <c r="J52" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="24"/>
+      <c r="K52" s="55"/>
     </row>
     <row r="53" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
       <c r="J53" s="12" t="s">
         <v>20</v>
       </c>
@@ -2108,10 +2243,10 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="56" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="14">
@@ -2143,7 +2278,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="1" t="s">
         <v>23</v>
       </c>
@@ -2173,6 +2308,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:B53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:K51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:B39"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A17:F17"/>
@@ -2189,56 +2372,259 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:B39"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:K37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:B53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:K51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:K52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B3C38D-21D1-4B6F-9619-F18A97A7A091}">
+  <dimension ref="A2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="67">
+        <v>940</v>
+      </c>
+      <c r="D4" s="68">
+        <v>9.4943073802190412</v>
+      </c>
+      <c r="E4" s="68">
+        <v>27.510502666725795</v>
+      </c>
+      <c r="F4" s="69">
+        <v>0.89729365966584118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="70"/>
+      <c r="B5" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="72">
+        <v>940</v>
+      </c>
+      <c r="D5" s="73">
+        <v>9.7787703379223991</v>
+      </c>
+      <c r="E5" s="73">
+        <v>26.134768944708433</v>
+      </c>
+      <c r="F5" s="74">
+        <v>0.85242217326992986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="79"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="84"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="91">
+        <v>3.9386198854941266</v>
+      </c>
+      <c r="D11" s="92">
+        <v>4.7334789439095401E-2</v>
+      </c>
+      <c r="E11" s="92">
+        <v>-0.22984255134282597</v>
+      </c>
+      <c r="F11" s="93">
+        <v>1878</v>
+      </c>
+      <c r="G11" s="92">
+        <v>0.81823914910889128</v>
+      </c>
+      <c r="H11" s="68">
+        <v>-0.28446295770335794</v>
+      </c>
+      <c r="I11" s="68">
+        <v>1.2376427081992398</v>
+      </c>
+      <c r="J11" s="68">
+        <v>-2.7117624606046813</v>
+      </c>
+      <c r="K11" s="69">
+        <v>2.1428365451979654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="70"/>
+      <c r="B12" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96">
+        <v>-0.22984255134282597</v>
+      </c>
+      <c r="F12" s="96">
+        <v>1873.0790278523712</v>
+      </c>
+      <c r="G12" s="96">
+        <v>0.81823921486473705</v>
+      </c>
+      <c r="H12" s="73">
+        <v>-0.28446295770335794</v>
+      </c>
+      <c r="I12" s="73">
+        <v>1.2376427081992398</v>
+      </c>
+      <c r="J12" s="73">
+        <v>-2.7117665731427802</v>
+      </c>
+      <c r="K12" s="74">
+        <v>2.1428406577360644</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>